--- a/Assets/Resources/ExcelFiles/EnemyStats.xlsx
+++ b/Assets/Resources/ExcelFiles/EnemyStats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Game Dev\Games\ICS167Prototype\Assets\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunji\OneDrive\Documents\GitHub\ICS167Prototype\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA095D4-3E48-44E8-9D2D-BF1276026428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B29568D-F96D-4704-850C-C02C2D563DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AEF481A-803E-41A3-9CA3-B151A9D61954}"/>
+    <workbookView xWindow="6566" yWindow="677" windowWidth="26091" windowHeight="16260" xr2:uid="{4AEF481A-803E-41A3-9CA3-B151A9D61954}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyStats" sheetId="1" r:id="rId1"/>
@@ -119,18 +119,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +167,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,15 +482,15 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="15" width="15.625" customWidth="1"/>
+    <col min="1" max="15" width="15.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -642,7 +642,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="1">
-        <v>2.9131</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -689,7 +689,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>2.1223000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -733,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
-        <v>2.9131</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -745,13 +745,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>

--- a/Assets/Resources/ExcelFiles/EnemyStats.xlsx
+++ b/Assets/Resources/ExcelFiles/EnemyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunji\OneDrive\Documents\GitHub\ICS167Prototype\Assets\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Game Dev\Games\ICS167Prototype\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B29568D-F96D-4704-850C-C02C2D563DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B56EC6-1B76-45A0-B7A0-4AC45F39DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6566" yWindow="677" windowWidth="26091" windowHeight="16260" xr2:uid="{4AEF481A-803E-41A3-9CA3-B151A9D61954}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AEF481A-803E-41A3-9CA3-B151A9D61954}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyStats" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>EnemyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>DefaultLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,18 +123,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +171,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,18 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116AEB22-EBF2-4480-B1C3-D6E09EEAB6E6}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="15.61328125" customWidth="1"/>
+    <col min="1" max="15" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -584,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -631,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -678,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -725,7 +729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -769,6 +773,53 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1223000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>20</v>
       </c>
     </row>
